--- a/TP1/revue_code/revue_code_MohamadHujaij.xlsx
+++ b/TP1/revue_code/revue_code_MohamadHujaij.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1946202\TP1-420-5GP-BB\TP1\revue_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5836E6DB-BFA3-4D57-BEB2-13444D931879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CED7BBA-41F1-4B89-93FC-D1DEAEBEE45F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="24495" windowHeight="15795" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
   <si>
     <t>PROJET</t>
   </si>
@@ -90,12 +81,6 @@
     <t>LIGNE</t>
   </si>
   <si>
-    <t>tout</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
     <t>Enseignant</t>
   </si>
   <si>
@@ -111,24 +96,12 @@
     <t>Le nom de variable "n" est non-significatif.</t>
   </si>
   <si>
-    <t>Ne contient aucune définition de méthode.</t>
-  </si>
-  <si>
-    <t>Ne contient pas de main.</t>
-  </si>
-  <si>
-    <t>Certaines variables sont nommées en anglais, d'autres en français. C'est du franglais.</t>
-  </si>
-  <si>
     <t>La variable "fin" devrait être un boolean.</t>
   </si>
   <si>
     <t>La variable choice est initialisé à 0, pourquoi, si c'est un input de caractères. Initialiser à vide.</t>
   </si>
   <si>
-    <t>Les variables sont tous globaux. Il faudrait avoir des méthodes avec des variables internes.</t>
-  </si>
-  <si>
     <t>Il serait mieux de faire un retour de ligne au lieu d'un print() vide.</t>
   </si>
   <si>
@@ -165,7 +138,52 @@
     <t>Le traitement dans le cas de fil = 5 est manquant.</t>
   </si>
   <si>
-    <t>À corriger.</t>
+    <t>Correction</t>
+  </si>
+  <si>
+    <t>8 à 17</t>
+  </si>
+  <si>
+    <t>33 à 42</t>
+  </si>
+  <si>
+    <t>Mettre ce bloc de code dans une fonction.</t>
+  </si>
+  <si>
+    <t>8 à 111</t>
+  </si>
+  <si>
+    <t>Mettre dans le main (incluant les fonctions).</t>
+  </si>
+  <si>
+    <t>52 à 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 à 102 </t>
+  </si>
+  <si>
+    <t>104 à 107</t>
+  </si>
+  <si>
+    <t>La variable fichier est en français alors que la majorité des variables sont en anglais.</t>
+  </si>
+  <si>
+    <t>La variable fils_coupes est en français alors que la majorité des variables sont en anglais.</t>
+  </si>
+  <si>
+    <t>La variable fin est en français alors que la majorité des variables sont en anglais.</t>
+  </si>
+  <si>
+    <t>La variable fil est en français alors que la majorité des variables sont en anglais.</t>
+  </si>
+  <si>
+    <t>8,9,13,20,24</t>
+  </si>
+  <si>
+    <t>Ces variables sont tous globaux. Il faudrait les ajouter dans le main.</t>
+  </si>
+  <si>
+    <t>billet</t>
   </si>
 </sst>
 </file>
@@ -263,11 +281,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,35 +601,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EF6733-6B20-4ADE-95E8-4F31CB65AA28}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="77.265625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.1328125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="77.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -621,45 +639,45 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
@@ -667,7 +685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -690,468 +708,522 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" ref="A13:A35" si="0">A12+1</f>
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B15" s="6">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B16" s="6">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B18" s="6">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B19" s="6">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B20" s="6">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B21" s="6">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B22" s="6">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B23" s="6">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B24" s="6">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B25" s="6">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="6">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B29" s="6">
+        <v>60</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <f>A12+1</f>
-        <v>2</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B31" s="6">
+        <v>62</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
-        <f t="shared" ref="A14:A39" si="0">A13+1</f>
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="E31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B32" s="6">
+        <v>91</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B16" s="7">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="D34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B18" s="7">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B19" s="7">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B20" s="7">
-        <v>42</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B21" s="7">
-        <v>36</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B22" s="7">
-        <v>48</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
-        <f>A22+1</f>
-        <v>12</v>
-      </c>
-      <c r="B23" s="7">
-        <v>49</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
-        <f t="shared" ref="A24:A34" si="1">A23+1</f>
-        <v>13</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="5">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B25" s="7">
-        <v>58</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="5">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B26" s="7">
-        <v>62</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="5">
-        <f>A28+1</f>
-        <v>17</v>
-      </c>
-      <c r="B27" s="7">
-        <v>91</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="5">
-        <f>A26+1</f>
-        <v>16</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="5">
-        <f>A27+1</f>
-        <v>18</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="5">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="5">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="5">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" s="5">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" s="5">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/TP1/revue_code/revue_code_MohamadHujaij.xlsx
+++ b/TP1/revue_code/revue_code_MohamadHujaij.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1946202\TP1-420-5GP-BB\TP1\revue_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CED7BBA-41F1-4B89-93FC-D1DEAEBEE45F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E44567-9757-46BD-9269-07AE95CFCCED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="24495" windowHeight="15795" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
   </bookViews>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EF6733-6B20-4ADE-95E8-4F31CB65AA28}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +958,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
@@ -1024,7 +1024,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>33</v>

--- a/TP1/revue_code/revue_code_MohamadHujaij.xlsx
+++ b/TP1/revue_code/revue_code_MohamadHujaij.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1946202\TP1-420-5GP-BB\TP1\revue_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E44567-9757-46BD-9269-07AE95CFCCED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984C1900-ED2C-4B5C-988B-C1916BB7E967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="24495" windowHeight="15795" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>PROJET</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Mohamad Hujaij</t>
-  </si>
-  <si>
-    <t>Défaut</t>
   </si>
   <si>
     <t>Cosmétique</t>
@@ -604,7 +601,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,16 +713,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -735,19 +732,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -757,19 +754,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -782,16 +779,16 @@
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -804,16 +801,16 @@
         <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -823,19 +820,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="3"/>
     </row>
@@ -848,16 +845,16 @@
         <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="3"/>
     </row>
@@ -870,16 +867,16 @@
         <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="3"/>
     </row>
@@ -892,16 +889,16 @@
         <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="3"/>
     </row>
@@ -914,16 +911,16 @@
         <v>42</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="3"/>
     </row>
@@ -936,16 +933,16 @@
         <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -958,16 +955,16 @@
         <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -980,16 +977,16 @@
         <v>48</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -1002,16 +999,16 @@
         <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -1021,19 +1018,19 @@
         <v>15</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -1043,19 +1040,19 @@
         <v>16</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -1068,16 +1065,16 @@
         <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -1090,16 +1087,16 @@
         <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -1109,19 +1106,19 @@
         <v>19</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -1134,16 +1131,16 @@
         <v>62</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -1156,16 +1153,16 @@
         <v>91</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -1175,19 +1172,19 @@
         <v>22</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -1197,19 +1194,19 @@
         <v>23</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G34" s="3"/>
     </row>

--- a/TP1/revue_code/revue_code_MohamadHujaij.xlsx
+++ b/TP1/revue_code/revue_code_MohamadHujaij.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1946202\TP1-420-5GP-BB\TP1\revue_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984C1900-ED2C-4B5C-988B-C1916BB7E967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05DABD6-B09C-4A29-83BB-CA74D18A9566}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="24495" windowHeight="15795" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>PROJET</t>
   </si>
@@ -180,7 +180,7 @@
     <t>Ces variables sont tous globaux. Il faudrait les ajouter dans le main.</t>
   </si>
   <si>
-    <t>billet</t>
+    <t>Billet</t>
   </si>
 </sst>
 </file>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EF6733-6B20-4ADE-95E8-4F31CB65AA28}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,9 +721,7 @@
       <c r="E12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -741,11 +739,9 @@
         <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -763,11 +759,9 @@
         <v>41</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -787,9 +781,7 @@
       <c r="E15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -809,9 +801,7 @@
       <c r="E16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -829,11 +819,9 @@
         <v>39</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -853,9 +841,7 @@
       <c r="E18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -875,9 +861,7 @@
       <c r="E19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,9 +881,7 @@
       <c r="E20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -919,9 +901,7 @@
       <c r="E21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -941,9 +921,7 @@
       <c r="E22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -963,9 +941,7 @@
       <c r="E23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -985,9 +961,7 @@
       <c r="E24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1007,9 +981,7 @@
       <c r="E25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1027,11 +999,9 @@
         <v>32</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1051,9 +1021,7 @@
       <c r="E27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,9 +1041,7 @@
       <c r="E28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1095,9 +1061,7 @@
       <c r="E29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,11 +1079,9 @@
         <v>39</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,11 +1099,9 @@
         <v>25</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1159,11 +1119,9 @@
         <v>35</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1181,11 +1139,9 @@
         <v>39</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1203,11 +1159,9 @@
         <v>50</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">

--- a/TP1/revue_code/revue_code_MohamadHujaij.xlsx
+++ b/TP1/revue_code/revue_code_MohamadHujaij.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1946202\TP1-420-5GP-BB\TP1\revue_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamad\Documents\TP1-420-5GP-BB\TP1\revue_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05DABD6-B09C-4A29-83BB-CA74D18A9566}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9AA2A5-0CFA-40A5-9BC5-639278E2F93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="24495" windowHeight="15795" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>PROJET</t>
   </si>
@@ -172,12 +181,6 @@
   </si>
   <si>
     <t>La variable fil est en français alors que la majorité des variables sont en anglais.</t>
-  </si>
-  <si>
-    <t>8,9,13,20,24</t>
-  </si>
-  <si>
-    <t>Ces variables sont tous globaux. Il faudrait les ajouter dans le main.</t>
   </si>
   <si>
     <t>Billet</t>
@@ -598,24 +601,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EF6733-6B20-4ADE-95E8-4F31CB65AA28}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="77.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" customWidth="1"/>
+    <col min="4" max="4" width="77.265625" customWidth="1"/>
+    <col min="5" max="5" width="15.73046875" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="7" max="7" width="15.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -626,7 +629,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -636,7 +639,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -648,7 +651,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -660,21 +663,21 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D6" s="3"/>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
@@ -682,7 +685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -705,7 +708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -724,9 +727,9 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
-        <f t="shared" ref="A13:A35" si="0">A12+1</f>
+        <f t="shared" ref="A13:A33" si="0">A12+1</f>
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -739,12 +742,12 @@
         <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -759,12 +762,12 @@
         <v>41</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -784,7 +787,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -804,7 +807,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -819,12 +822,12 @@
         <v>39</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -844,7 +847,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -864,7 +867,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -884,7 +887,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -904,7 +907,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -924,7 +927,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -944,7 +947,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -964,7 +967,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -984,7 +987,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -999,12 +1002,12 @@
         <v>32</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1024,7 +1027,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1044,7 +1047,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1064,7 +1067,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1079,12 +1082,12 @@
         <v>39</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1099,12 +1102,12 @@
         <v>25</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1119,12 +1122,12 @@
         <v>35</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1139,42 +1142,10 @@
         <v>39</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/TP1/revue_code/revue_code_MohamadHujaij.xlsx
+++ b/TP1/revue_code/revue_code_MohamadHujaij.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamad\Documents\TP1-420-5GP-BB\TP1\revue_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9AA2A5-0CFA-40A5-9BC5-639278E2F93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6016459A-F735-40FD-A05E-0656BB823321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{A048998D-8A6E-437B-863F-D5E4D7A0533E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>PROJET</t>
   </si>
@@ -126,12 +126,6 @@
     <t xml:space="preserve">Le nom de variable"index" n'est pas significatif. </t>
   </si>
   <si>
-    <t xml:space="preserve">Le nom de variable"i" n'est pas significatif. </t>
-  </si>
-  <si>
-    <t>De 50 à 102</t>
-  </si>
-  <si>
     <t>Manque de commentaires qui assurent la compréhension du code.</t>
   </si>
   <si>
@@ -147,30 +141,12 @@
     <t>Correction</t>
   </si>
   <si>
-    <t>8 à 17</t>
-  </si>
-  <si>
-    <t>33 à 42</t>
-  </si>
-  <si>
     <t>Mettre ce bloc de code dans une fonction.</t>
   </si>
   <si>
-    <t>8 à 111</t>
-  </si>
-  <si>
     <t>Mettre dans le main (incluant les fonctions).</t>
   </si>
   <si>
-    <t>52 à 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 à 102 </t>
-  </si>
-  <si>
-    <t>104 à 107</t>
-  </si>
-  <si>
     <t>La variable fichier est en français alors que la majorité des variables sont en anglais.</t>
   </si>
   <si>
@@ -184,6 +160,27 @@
   </si>
   <si>
     <t>Billet</t>
+  </si>
+  <si>
+    <t>8 à 16</t>
+  </si>
+  <si>
+    <t>7 à 110</t>
+  </si>
+  <si>
+    <t>33 à 41</t>
+  </si>
+  <si>
+    <t>De 50 à 101</t>
+  </si>
+  <si>
+    <t>51 à 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61 à 101 </t>
+  </si>
+  <si>
+    <t>103 à 106</t>
   </si>
 </sst>
 </file>
@@ -601,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EF6733-6B20-4ADE-95E8-4F31CB65AA28}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -713,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
@@ -722,27 +719,27 @@
         <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
-        <f t="shared" ref="A13:A33" si="0">A12+1</f>
+        <f t="shared" ref="A13:A32" si="0">A12+1</f>
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -753,16 +750,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -773,16 +770,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -793,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>26</v>
@@ -802,7 +799,7 @@
         <v>23</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -813,16 +810,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -833,7 +830,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>20</v>
@@ -842,7 +839,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -853,16 +850,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -873,7 +870,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>20</v>
@@ -882,7 +879,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -893,16 +890,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="6">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -913,16 +910,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -933,16 +930,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -959,10 +956,10 @@
         <v>20</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -972,17 +969,17 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B25" s="6">
-        <v>49</v>
+      <c r="B25" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -993,16 +990,16 @@
         <v>15</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1012,17 +1009,17 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>42</v>
+      <c r="B27" s="6">
+        <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1033,16 +1030,16 @@
         <v>17</v>
       </c>
       <c r="B28" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1052,17 +1049,17 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B29" s="6">
-        <v>60</v>
+      <c r="B29" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1072,17 +1069,17 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>43</v>
+      <c r="B30" s="6">
+        <v>59</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1093,16 +1090,16 @@
         <v>20</v>
       </c>
       <c r="B31" s="6">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1112,40 +1109,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B32" s="6">
-        <v>91</v>
+      <c r="B32" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A33" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
